--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+  <si>
+    <t xml:space="preserve">names.rsdata.</t>
+  </si>
   <si>
     <t xml:space="preserve">lopnr</t>
   </si>
   <si>
+    <t xml:space="preserve">casecontrol</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_source</t>
   </si>
   <si>
@@ -38,18 +44,21 @@
     <t xml:space="preserve">shf_ef</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_ef_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_eforg</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_ef_cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">shf_sex</t>
   </si>
   <si>
     <t xml:space="preserve">shf_age</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_age_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_civilstatus</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t xml:space="preserve">shf_smoke</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_smoke_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_alcohol</t>
   </si>
   <si>
@@ -83,6 +95,9 @@
     <t xml:space="preserve">shf_nyha</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_nyha_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_killip</t>
   </si>
   <si>
@@ -101,15 +116,27 @@
     <t xml:space="preserve">shf_map</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_map_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_heartrate</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_heartrate_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_hb</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_anemia</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_potassium</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_potassium_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_sodium</t>
   </si>
   <si>
@@ -119,6 +146,9 @@
     <t xml:space="preserve">shf_gfrckdepi</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_gfrckdepi_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_ntprobnp</t>
   </si>
   <si>
@@ -245,6 +275,9 @@
     <t xml:space="preserve">shf_device</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_device_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_xray</t>
   </si>
   <si>
@@ -284,6 +317,9 @@
     <t xml:space="preserve">shf_followuplocation</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_followuplocation_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_qol</t>
   </si>
   <si>
@@ -293,34 +329,10 @@
     <t xml:space="preserve">shf_bmiimp</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_nyha_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_age_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_smoke_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_map_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_potassium_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_heartrate_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_device_cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">shf_bmi_cat</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_gfrckdepi_cat</t>
+    <t xml:space="preserve">shf_bmiimp_cat</t>
   </si>
   <si>
     <t xml:space="preserve">shf_sos_com_af</t>
@@ -338,9 +350,6 @@
     <t xml:space="preserve">shf_sos_com_valvular</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_followuplocation_cat</t>
-  </si>
-  <si>
     <t xml:space="preserve">scb_countryofbirth</t>
   </si>
   <si>
@@ -368,7 +377,7 @@
     <t xml:space="preserve">sos_durationhf</t>
   </si>
   <si>
-    <t xml:space="preserve">sos_prevhosphf</t>
+    <t xml:space="preserve">sos_timeprevhosphf</t>
   </si>
   <si>
     <t xml:space="preserve">sos_location</t>
@@ -927,7 +936,987 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t xml:space="preserve">names.rsdata.</t>
   </si>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">sos_com_valvular</t>
   </si>
   <si>
-    <t xml:space="preserve">sos_com_kidney</t>
+    <t xml:space="preserve">sos_com_renal</t>
   </si>
   <si>
     <t xml:space="preserve">sos_com_hyperkalemia</t>
@@ -440,6 +440,9 @@
     <t xml:space="preserve">sos_com_copd</t>
   </si>
   <si>
+    <t xml:space="preserve">sos_com_respiratory</t>
+  </si>
+  <si>
     <t xml:space="preserve">sos_com_liver</t>
   </si>
   <si>
@@ -533,10 +536,10 @@
     <t xml:space="preserve">sos_outtime_hosppneumonia</t>
   </si>
   <si>
-    <t xml:space="preserve">sos_out_hospkidney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sos_outtime_hospkidney</t>
+    <t xml:space="preserve">sos_out_hosprenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_outtime_hosprenal</t>
   </si>
   <si>
     <t xml:space="preserve">sos_out_hospcancer</t>
@@ -1919,6 +1922,11 @@
         <v>196</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t xml:space="preserve">names.rsdata.</t>
   </si>
@@ -23,6 +23,12 @@
     <t xml:space="preserve">casecontrol</t>
   </si>
   <si>
+    <t xml:space="preserve">ncontrols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lopnrcase</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_source</t>
   </si>
   <si>
@@ -323,6 +329,9 @@
     <t xml:space="preserve">shf_qol</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_qol_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_bmi</t>
   </si>
   <si>
@@ -335,6 +344,9 @@
     <t xml:space="preserve">shf_bmiimp_cat</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_sos_prevhfh1yr</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_sos_com_af</t>
   </si>
   <si>
@@ -468,6 +480,9 @@
   </si>
   <si>
     <t xml:space="preserve">sos_com_charlsonci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_com_charlsonci_cat</t>
   </si>
   <si>
     <t xml:space="preserve">sos_out_hosphf</t>
@@ -1927,6 +1942,31 @@
         <v>197</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve">names.rsdata.</t>
   </si>
@@ -53,295 +53,361 @@
     <t xml:space="preserve">shf_ef_cat</t>
   </si>
   <si>
-    <t xml:space="preserve">shf_eforg</t>
-  </si>
-  <si>
     <t xml:space="preserve">shf_sex</t>
   </si>
   <si>
     <t xml:space="preserve">shf_age</t>
   </si>
   <si>
+    <t xml:space="preserve">shf_civilstatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_centreregion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_centretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_smoke_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_durationhf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_primaryetiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_nyha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_nyha_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_killip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_weight_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_weight_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpsys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpsys_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpsys_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpdia_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bpdia_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_map_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_heartrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_heartrate_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_heartrate_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_heartrate_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_hb_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_hb_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_potassium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_potassium_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_potassium_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_potassium_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sodium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sodium_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sodium_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_crea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_crea_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_crea_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_gfrckdepi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_gfrckdepi_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ntprobnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ntprobnp_admvisit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ntprobnp_dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bnp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_transferrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ferritin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_qrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_lbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopivdtm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_fcmiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_fcmivdose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_fcmivdtm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_unplannedinotrope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_diuretic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopdiuretic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopdiureticsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopdiureticdose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_loopdiureticusage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_acei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_aceisub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_aceidose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_arb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_arbsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_arbdose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_arni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_arnidose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_rasiarni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bblsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bbldose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_mra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_mrasub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_mradose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_digoxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_asaantiplatelet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_anticoagulantia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_statin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_nitrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sglt2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sglt2sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sglt2dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_sinusnodei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_device_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_xray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_diabetestype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_lungdisease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_valvedisease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_dcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_revasc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_valvesurgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_ekg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_followuphfunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_followuplocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_followuplocation_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_qol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_qol_cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_outofbreath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_anxiety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shf_bmi_cat</t>
+  </si>
+  <si>
     <t xml:space="preserve">shf_age_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_civilstatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_centreregion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_centretype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_smoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_smoke_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_durationhf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_primaryetiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_nyha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_nyha_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_killip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bpsys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bpdia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_map_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_heartrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_heartrate_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_hb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_anemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_potassium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_potassium_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_sodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_crea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_gfrckdepi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_gfrckdepi_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_ntprobnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bnp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_transferrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_ferritin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_qrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_lbbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopivdtm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_fcmiv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_fcmivdose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_fcmivdtm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_unplannedinotrope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_diuretic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopdiuretic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopdiureticsub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopdiureticdose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_loopdiureticusage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_acei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_aceisub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_aceidose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_arb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_arbsub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_arbdose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_arni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_arnidose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_rasiarni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bblsub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bbldose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_mra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_mrasub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_mradose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_digoxin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_asaantiplatelet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_anticoagulantia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_statin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_nitrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_sglt2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_sglt2sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_sglt2dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_sinusnodei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_device_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_xray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_diabetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_diabetestype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_hypertension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_lungdisease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_valvedisease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_dcm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_revasc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_valvesurgery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_ekg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_followuphfunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_followuplocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_followuplocation_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_qol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_qol_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bmiimp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bmi_cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shf_bmiimp_cat</t>
   </si>
   <si>
     <t xml:space="preserve">shf_sos_prevhfh1yr</t>
@@ -1967,6 +2033,116 @@
         <v>202</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t xml:space="preserve">names.rsdata.</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t xml:space="preserve">sos_com_charlsonci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_com_charlsonciage</t>
   </si>
   <si>
     <t xml:space="preserve">sos_com_charlsonci_cat</t>
@@ -2143,6 +2146,11 @@
         <v>224</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/metadata/tmp_meta_variables.xlsx
+++ b/metadata/tmp_meta_variables.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t xml:space="preserve">names.rsdata.</t>
   </si>
@@ -506,15 +506,15 @@
     <t xml:space="preserve">sos_com_renal</t>
   </si>
   <si>
+    <t xml:space="preserve">sos_com_dialysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">sos_com_hyperkalemia</t>
   </si>
   <si>
     <t xml:space="preserve">sos_com_hypokalemia</t>
   </si>
   <si>
-    <t xml:space="preserve">sos_com_dialysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">sos_com_copd</t>
   </si>
   <si>
@@ -620,10 +620,16 @@
     <t xml:space="preserve">sos_outtime_hosppneumonia</t>
   </si>
   <si>
-    <t xml:space="preserve">sos_out_hosprenal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sos_outtime_hosprenal</t>
+    <t xml:space="preserve">sos_out_hosprenalacute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_outtime_hosprenalacute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_out_renalendstage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sos_outtime_renalendstage</t>
   </si>
   <si>
     <t xml:space="preserve">sos_out_hospcancer</t>
@@ -2151,6 +2157,16 @@
         <v>225</v>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
